--- a/LocalSave_kylacaisip_DataCollection.xlsx
+++ b/LocalSave_kylacaisip_DataCollection.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="241">
   <si>
     <t>article_id</t>
   </si>
@@ -174,7 +174,7 @@
     </r>
   </si>
   <si>
-    <t>The link to the database in the abstract does not load.</t>
+    <t>The link to the database in the abstract does not load. Results in a "502 Bad Gateway" message.</t>
   </si>
   <si>
     <t>nar_2024_155</t>
@@ -258,9 +258,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>The server is currently under maintanence.</t>
   </si>
   <si>
     <t>nar_2024_157</t>
@@ -1759,19 +1756,18 @@
       <c r="M6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="N6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
@@ -1780,31 +1776,31 @@
         <v>3.7930837E7</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="N7" s="2" t="b">
         <v>1</v>
@@ -1812,10 +1808,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C8" s="1">
         <v>2024.0</v>
@@ -1824,31 +1820,31 @@
         <v>3.7953409E7</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="5" t="b">
         <v>1</v>
@@ -1856,10 +1852,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C9" s="1">
         <v>2024.0</v>
@@ -1868,31 +1864,31 @@
         <v>3.8015436E7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="L9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="N9" s="5" t="b">
         <v>1</v>
@@ -1900,10 +1896,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C10" s="1">
         <v>2024.0</v>
@@ -1912,19 +1908,19 @@
         <v>3.7930842E7</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>0</v>
@@ -1933,7 +1929,7 @@
         <v>48</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N10" s="5" t="b">
         <v>1</v>
@@ -1941,10 +1937,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C11" s="1">
         <v>2024.0</v>
@@ -1953,31 +1949,31 @@
         <v>3.7878411E7</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="L11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="N11" s="5" t="b">
         <v>1</v>
@@ -1985,10 +1981,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C12" s="1">
         <v>2024.0</v>
@@ -1997,28 +1993,28 @@
         <v>3.7953312E7</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="J12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="N12" s="5" t="b">
         <v>1</v>
@@ -2026,10 +2022,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C13" s="1">
         <v>2024.0</v>
@@ -2038,28 +2034,28 @@
         <v>3.7941143E7</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="J13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="N13" s="5" t="b">
         <v>1</v>
@@ -2067,10 +2063,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C14" s="1">
         <v>2024.0</v>
@@ -2079,31 +2075,31 @@
         <v>3.781189E7</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="L14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="N14" s="5" t="b">
         <v>1</v>
@@ -2111,10 +2107,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C15" s="1">
         <v>2024.0</v>
@@ -2123,31 +2119,31 @@
         <v>3.7819033E7</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="N15" s="5" t="b">
         <v>1</v>
@@ -2155,10 +2151,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C16" s="1">
         <v>2024.0</v>
@@ -2167,28 +2163,28 @@
         <v>3.7933855E7</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="J16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="N16" s="5" t="b">
         <v>1</v>
@@ -2196,10 +2192,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C17" s="1">
         <v>2024.0</v>
@@ -2208,31 +2204,31 @@
         <v>3.7897352E7</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="N17" s="5" t="b">
         <v>1</v>
@@ -2240,10 +2236,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C18" s="1">
         <v>2024.0</v>
@@ -2252,28 +2248,28 @@
         <v>3.795333E7</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="J18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="N18" s="5" t="b">
         <v>1</v>
@@ -2281,10 +2277,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C19" s="1">
         <v>2024.0</v>
@@ -2293,28 +2289,28 @@
         <v>3.7953313E7</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="J19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="N19" s="5" t="b">
         <v>1</v>
@@ -2322,10 +2318,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C20" s="1">
         <v>2024.0</v>
@@ -2334,28 +2330,28 @@
         <v>3.7904593E7</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="J20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="N20" s="5" t="b">
         <v>1</v>
@@ -2363,10 +2359,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C21" s="1">
         <v>2024.0</v>
@@ -2375,31 +2371,31 @@
         <v>3.7956338E7</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="L21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="N21" s="5" t="b">
         <v>1</v>
@@ -2407,10 +2403,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C22" s="1">
         <v>2024.0</v>
@@ -2419,28 +2415,28 @@
         <v>3.7897362E7</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="J22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="N22" s="5" t="b">
         <v>1</v>
@@ -2448,10 +2444,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C23" s="1">
         <v>2024.0</v>
@@ -2460,19 +2456,19 @@
         <v>3.7994699E7</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J23" s="5" t="b">
         <v>0</v>
@@ -2481,7 +2477,7 @@
         <v>48</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N23" s="5" t="b">
         <v>1</v>
@@ -2489,10 +2485,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="C24" s="1">
         <v>2024.0</v>
@@ -2501,28 +2497,28 @@
         <v>3.7831083E7</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="J24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="N24" s="5" t="b">
         <v>1</v>
@@ -2530,10 +2526,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C25" s="1">
         <v>2024.0</v>
@@ -2542,28 +2538,28 @@
         <v>3.7811889E7</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="J25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="N25" s="5" t="b">
         <v>1</v>
@@ -2571,10 +2567,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C26" s="1">
         <v>2024.0</v>
@@ -2583,19 +2579,19 @@
         <v>3.7819042E7</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J26" s="5" t="b">
         <v>0</v>
@@ -2604,7 +2600,7 @@
         <v>48</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N26" s="5" t="b">
         <v>1</v>
@@ -2612,10 +2608,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="C27" s="1">
         <v>2024.0</v>
@@ -2624,28 +2620,28 @@
         <v>3.7811874E7</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="J27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="N27" s="5" t="b">
         <v>1</v>
@@ -2653,10 +2649,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C28" s="1">
         <v>2024.0</v>
@@ -2665,42 +2661,42 @@
         <v>3.7962386E7</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="N28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C29" s="1">
         <v>2024.0</v>
@@ -2709,19 +2705,19 @@
         <v>3.8000392E7</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J29" s="5" t="b">
         <v>0</v>
@@ -2731,7 +2727,7 @@
         <v>48</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N29" s="5" t="b">
         <v>1</v>
@@ -2739,10 +2735,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="C30" s="1">
         <v>2024.0</v>
@@ -2751,28 +2747,28 @@
         <v>3.785569E7</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="J30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="N30" s="5" t="b">
         <v>1</v>
@@ -2780,10 +2776,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="C31" s="1">
         <v>2024.0</v>
@@ -2792,31 +2788,31 @@
         <v>3.7819041E7</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="L31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="N31" s="5" t="b">
         <v>1</v>
